--- a/test_fatura_zirve.xlsx
+++ b/test_fatura_zirve.xlsx
@@ -518,7 +518,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>YEDEK PARÇA (24V SELENOİD)</t>
+          <t>a (b)</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>650</v>
+        <v>150</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -542,10 +542,41 @@
         <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="3"/>
+        <v>30</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>d (e)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C62</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>20</v>
+      </c>
+      <c r="H3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+    </row>
     <row r="4"/>
     <row r="5"/>
   </sheetData>

--- a/test_fatura_zirve.xlsx
+++ b/test_fatura_zirve.xlsx
@@ -518,7 +518,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>a (b)</t>
+          <t>YEDEK PARÇA (24V SELENOİD)</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>150</v>
+        <v>650</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -542,41 +542,10 @@
         <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>d (e)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>C62</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>100</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>20</v>
-      </c>
-      <c r="H3" t="n">
-        <v>20</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-    </row>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="3"/>
     <row r="4"/>
     <row r="5"/>
   </sheetData>
